--- a/control_image_data.xlsx
+++ b/control_image_data.xlsx
@@ -13,6 +13,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Intensity Correlation" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Channel Intensity Correlation" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IoUs between different Channels" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster Meta Information" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Distortion Scores" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8979257860468286</v>
+        <v>0.7463255096377031</v>
       </c>
       <c r="C2" t="n">
         <v>31</v>
@@ -489,13 +491,13 @@
         <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>93.18955618970213</v>
+        <v>56.13452920403763</v>
       </c>
       <c r="F2" t="n">
-        <v>97.72694678738168</v>
+        <v>57.84850400933677</v>
       </c>
       <c r="G2" t="n">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="H2" t="n">
         <v>255</v>
@@ -506,25 +508,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9641889917097796</v>
+        <v>0.8423491396888375</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>99.77296278850683</v>
+        <v>39.43127962085308</v>
       </c>
       <c r="F3" t="n">
-        <v>93.17208863743517</v>
+        <v>43.99565217391304</v>
       </c>
       <c r="G3" t="n">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
-        <v>193</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9347767877545795</v>
+        <v>0.8241610230635187</v>
       </c>
       <c r="C4" t="n">
         <v>31</v>
@@ -541,16 +543,16 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>89.88531360234019</v>
+        <v>47.364604577385</v>
       </c>
       <c r="F4" t="n">
-        <v>118.4298751614292</v>
+        <v>54.93956529422159</v>
       </c>
       <c r="G4" t="n">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="H4" t="n">
-        <v>225</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +560,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9498736359596298</v>
+        <v>0.6065526066065052</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>90.5966548729495</v>
+        <v>39.22059476253884</v>
       </c>
       <c r="F5" t="n">
-        <v>73.32097172954961</v>
+        <v>43.28607142857143</v>
       </c>
       <c r="G5" t="n">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +586,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.935500765605964</v>
+        <v>0.6431667446551749</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>92.14634146341463</v>
+        <v>55.04855842185129</v>
       </c>
       <c r="F6" t="n">
-        <v>79.44606840105233</v>
+        <v>37.81124497991968</v>
       </c>
       <c r="G6" t="n">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H6" t="n">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -610,25 +612,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9484353509205384</v>
+        <v>0.8609365103092264</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>87.80545015522594</v>
+        <v>51.42430044182621</v>
       </c>
       <c r="F7" t="n">
-        <v>100.9868920317351</v>
+        <v>49.61963281018656</v>
       </c>
       <c r="G7" t="n">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="H7" t="n">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -636,22 +638,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9624072795549702</v>
+        <v>0.9658673669371297</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>105.3024645257655</v>
+        <v>91.05068790731355</v>
       </c>
       <c r="F8" t="n">
-        <v>157.8315160567588</v>
+        <v>196.3515715948778</v>
       </c>
       <c r="G8" t="n">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="H8" t="n">
         <v>255</v>
@@ -662,25 +664,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9622092742984482</v>
+        <v>0.6897231122106353</v>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>96.67351351351351</v>
+        <v>48.26241963763881</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1414054054054</v>
+        <v>40.91747761775009</v>
       </c>
       <c r="G9" t="n">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="H9" t="n">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -688,25 +690,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8950373427542362</v>
+        <v>0.6879398025744987</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>83.09449423815622</v>
+        <v>41.18300653594771</v>
       </c>
       <c r="F10" t="n">
-        <v>64.43232205367562</v>
+        <v>39.5</v>
       </c>
       <c r="G10" t="n">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -714,25 +716,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9506902636078822</v>
+        <v>0.8510984146491584</v>
       </c>
       <c r="C11" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>109.1929404726294</v>
+        <v>48.06844444444445</v>
       </c>
       <c r="F11" t="n">
-        <v>106.0544584081388</v>
+        <v>48.49536094138946</v>
       </c>
       <c r="G11" t="n">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="H11" t="n">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -740,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9600847584583385</v>
+        <v>0.7457445775118419</v>
       </c>
       <c r="C12" t="n">
         <v>31</v>
@@ -749,16 +751,16 @@
         <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>118.4969566774078</v>
+        <v>38.60273972602739</v>
       </c>
       <c r="F12" t="n">
-        <v>187.9629497046716</v>
+        <v>39.94736842105263</v>
       </c>
       <c r="G12" t="n">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
-        <v>255</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -766,25 +768,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.920462936639016</v>
+        <v>0.9274235961709268</v>
       </c>
       <c r="C13" t="n">
         <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>86.00452183952279</v>
+        <v>40.33333333333334</v>
       </c>
       <c r="F13" t="n">
-        <v>56.96402105037053</v>
+        <v>58.84848484848485</v>
       </c>
       <c r="G13" t="n">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -792,25 +794,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9369619297344106</v>
+        <v>0.869545196244763</v>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>109.2611940298507</v>
+        <v>52.95876288659794</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3306902985075</v>
+        <v>58.05520504731861</v>
       </c>
       <c r="G14" t="n">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="H14" t="n">
-        <v>203</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -818,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9681057441907323</v>
+        <v>0.7360895025274221</v>
       </c>
       <c r="C15" t="n">
         <v>31</v>
@@ -827,16 +829,16 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>112.2733727810651</v>
+        <v>52.72936382754995</v>
       </c>
       <c r="F15" t="n">
-        <v>201.13923194045</v>
+        <v>41.07386487073648</v>
       </c>
       <c r="G15" t="n">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>255</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -844,25 +846,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9134064301464108</v>
+        <v>0.8573291248642757</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>82.51251885369533</v>
+        <v>72.83492822966507</v>
       </c>
       <c r="F16" t="n">
-        <v>70.08743882544861</v>
+        <v>44.81470412432756</v>
       </c>
       <c r="G16" t="n">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="H16" t="n">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -870,25 +872,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9524393418427423</v>
+        <v>0.8838181484212209</v>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>98.67586454040494</v>
+        <v>51.09309350542359</v>
       </c>
       <c r="F17" t="n">
-        <v>101.2490593083677</v>
+        <v>56.57536041939711</v>
       </c>
       <c r="G17" t="n">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
@@ -896,25 +898,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9867608190119118</v>
+        <v>0.7085720752863921</v>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>96.87046632124353</v>
+        <v>51.82586050724638</v>
       </c>
       <c r="F18" t="n">
-        <v>163.279792746114</v>
+        <v>40.71730966200068</v>
       </c>
       <c r="G18" t="n">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="H18" t="n">
-        <v>255</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -922,25 +924,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9659182767678813</v>
+        <v>0.8670531318127066</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>96.34232365145228</v>
+        <v>57.85293318848452</v>
       </c>
       <c r="F19" t="n">
-        <v>86.86358921161826</v>
+        <v>59.45474285714285</v>
       </c>
       <c r="G19" t="n">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="H19" t="n">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -948,25 +950,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9358562873286332</v>
+        <v>0.56989897118425</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>31</v>
       </c>
       <c r="E20" t="n">
-        <v>81.13432835820896</v>
+        <v>51.11535513541134</v>
       </c>
       <c r="F20" t="n">
-        <v>73.9870330348873</v>
+        <v>38.34994239631337</v>
       </c>
       <c r="G20" t="n">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="H20" t="n">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -974,25 +976,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9524587065983569</v>
+        <v>0.6403720343771505</v>
       </c>
       <c r="C21" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>96.97176791277259</v>
+        <v>51.89869320225392</v>
       </c>
       <c r="F21" t="n">
-        <v>97.71767912772586</v>
+        <v>38.03811841038119</v>
       </c>
       <c r="G21" t="n">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="H21" t="n">
-        <v>203</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -1000,25 +1002,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9206048077364974</v>
+        <v>0.8336632889268399</v>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D22" t="n">
         <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>91.38336811687269</v>
+        <v>105.1497326203209</v>
       </c>
       <c r="F22" t="n">
-        <v>65.10497512437811</v>
+        <v>41.08122743682311</v>
       </c>
       <c r="G22" t="n">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="H22" t="n">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -1026,25 +1028,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9495163837674729</v>
+        <v>0.6848155256855086</v>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>87.7850699844479</v>
+        <v>57.40839575530587</v>
       </c>
       <c r="F23" t="n">
-        <v>87.91242806035153</v>
+        <v>38.86617806731813</v>
       </c>
       <c r="G23" t="n">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="H23" t="n">
-        <v>184</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1052,7 +1054,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9425885453740329</v>
+        <v>0.7551943688154754</v>
       </c>
       <c r="C24" t="n">
         <v>31</v>
@@ -1061,16 +1063,16 @@
         <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>89.03605354058722</v>
+        <v>52.42717943402094</v>
       </c>
       <c r="F24" t="n">
-        <v>67.43457084100011</v>
+        <v>40.81915068043941</v>
       </c>
       <c r="G24" t="n">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="H24" t="n">
-        <v>155</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1078,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9747712882766146</v>
+        <v>0.7322019994042437</v>
       </c>
       <c r="C25" t="n">
         <v>31</v>
@@ -1087,16 +1089,16 @@
         <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>109.2885198786524</v>
+        <v>48.58926061287602</v>
       </c>
       <c r="F25" t="n">
-        <v>97.74397061172337</v>
+        <v>42.13254637436762</v>
       </c>
       <c r="G25" t="n">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="H25" t="n">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1104,7 +1106,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9470547247612856</v>
+        <v>0.7008109205010198</v>
       </c>
       <c r="C26" t="n">
         <v>31</v>
@@ -1113,16 +1115,16 @@
         <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>86.54968287526427</v>
+        <v>47.74649840521425</v>
       </c>
       <c r="F26" t="n">
-        <v>69.05057724024189</v>
+        <v>39.8234588630367</v>
       </c>
       <c r="G26" t="n">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="H26" t="n">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1130,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9641665334670648</v>
+        <v>0.8515293596725816</v>
       </c>
       <c r="C27" t="n">
         <v>31</v>
@@ -1139,16 +1141,16 @@
         <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>94.48888888888889</v>
+        <v>51.90783138449445</v>
       </c>
       <c r="F27" t="n">
-        <v>126.1657824933687</v>
+        <v>50.87762335603022</v>
       </c>
       <c r="G27" t="n">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="H27" t="n">
-        <v>255</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -1156,25 +1158,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9209463306073213</v>
+        <v>0.845032108551773</v>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>97.65822038892162</v>
+        <v>53.39173101673101</v>
       </c>
       <c r="F28" t="n">
-        <v>62.50693093385214</v>
+        <v>47.38921952048971</v>
       </c>
       <c r="G28" t="n">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="H28" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1182,25 +1184,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9537570843251904</v>
+        <v>0.7323710213521549</v>
       </c>
       <c r="C29" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
         <v>31</v>
       </c>
       <c r="E29" t="n">
-        <v>101.9094587759231</v>
+        <v>54.3219097140156</v>
       </c>
       <c r="F29" t="n">
-        <v>71.10979075174373</v>
+        <v>39.88319473989557</v>
       </c>
       <c r="G29" t="n">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="H29" t="n">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -1208,25 +1210,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9562417315643342</v>
+        <v>0.8002731986687305</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>94.39188281965212</v>
+        <v>55.73522111913358</v>
       </c>
       <c r="F30" t="n">
-        <v>76.10255624348679</v>
+        <v>43.18504120665526</v>
       </c>
       <c r="G30" t="n">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="H30" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1234,25 +1236,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9261673207066909</v>
+        <v>0.7876882058630108</v>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>86.78401022436807</v>
+        <v>53.23144319747982</v>
       </c>
       <c r="F31" t="n">
-        <v>62.18323262839879</v>
+        <v>43.2808575415451</v>
       </c>
       <c r="G31" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="H31" t="n">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1260,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9425844374936058</v>
+        <v>0.8297369360409483</v>
       </c>
       <c r="C32" t="n">
         <v>31</v>
@@ -1269,16 +1271,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>104.7576427837902</v>
+        <v>51.04234671371857</v>
       </c>
       <c r="F32" t="n">
-        <v>93.46782199773578</v>
+        <v>49.7086624897848</v>
       </c>
       <c r="G32" t="n">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="H32" t="n">
-        <v>187</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33">
@@ -1286,25 +1288,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8193471172626473</v>
+        <v>0.7819050709133555</v>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>87.11304580766139</v>
+        <v>53.30810488676996</v>
       </c>
       <c r="F33" t="n">
-        <v>59.07152361942781</v>
+        <v>48.73627801234167</v>
       </c>
       <c r="G33" t="n">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="H33" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1312,25 +1314,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9702904651649812</v>
+        <v>0.7348697746477887</v>
       </c>
       <c r="C34" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
-        <v>120.3639203436158</v>
+        <v>48.09248611246467</v>
       </c>
       <c r="F34" t="n">
-        <v>92.25288029681703</v>
+        <v>40.0454364816532</v>
       </c>
       <c r="G34" t="n">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="H34" t="n">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -1338,7 +1340,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9623243886936969</v>
+        <v>0.9384313417790608</v>
       </c>
       <c r="C35" t="n">
         <v>31</v>
@@ -1347,16 +1349,16 @@
         <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>95.04185116411941</v>
+        <v>71.34397626112759</v>
       </c>
       <c r="F35" t="n">
-        <v>77.48948046371834</v>
+        <v>107.1864724704844</v>
       </c>
       <c r="G35" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="H35" t="n">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
@@ -1364,7 +1366,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8862973868074518</v>
+        <v>0.8801888548430654</v>
       </c>
       <c r="C36" t="n">
         <v>31</v>
@@ -1373,16 +1375,16 @@
         <v>31</v>
       </c>
       <c r="E36" t="n">
-        <v>96.92938620315046</v>
+        <v>55.29280397022332</v>
       </c>
       <c r="F36" t="n">
-        <v>53.59930555555555</v>
+        <v>57.18484848484849</v>
       </c>
       <c r="G36" t="n">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="H36" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -1390,25 +1392,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9473883987996936</v>
+        <v>0.7901150579810183</v>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>31</v>
       </c>
       <c r="E37" t="n">
-        <v>108.7106545961003</v>
+        <v>45.5647823911956</v>
       </c>
       <c r="F37" t="n">
-        <v>68.5044014084507</v>
+        <v>46.22292642601268</v>
       </c>
       <c r="G37" t="n">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="H37" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -1416,25 +1418,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9299824391608675</v>
+        <v>0.9298476383644222</v>
       </c>
       <c r="C38" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>31</v>
       </c>
       <c r="E38" t="n">
-        <v>105.1309571485783</v>
+        <v>56.06825938566553</v>
       </c>
       <c r="F38" t="n">
-        <v>58.72586495535715</v>
+        <v>94.31937984496125</v>
       </c>
       <c r="G38" t="n">
+        <v>128</v>
+      </c>
+      <c r="H38" t="n">
         <v>255</v>
-      </c>
-      <c r="H38" t="n">
-        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -1442,25 +1444,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9704829306919484</v>
+        <v>0.9734866457969734</v>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E39" t="n">
-        <v>114.4383368569415</v>
+        <v>100.7354472314245</v>
       </c>
       <c r="F39" t="n">
-        <v>86.87964757709251</v>
+        <v>182.0157822506862</v>
       </c>
       <c r="G39" t="n">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="H39" t="n">
-        <v>179</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
@@ -1468,7 +1470,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7988278288597076</v>
+        <v>0.7915115680480165</v>
       </c>
       <c r="C40" t="n">
         <v>31</v>
@@ -1477,16 +1479,16 @@
         <v>31</v>
       </c>
       <c r="E40" t="n">
-        <v>65.77538380691415</v>
+        <v>52.90294695481336</v>
       </c>
       <c r="F40" t="n">
-        <v>73.38550695923523</v>
+        <v>40.6493432324386</v>
       </c>
       <c r="G40" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="H40" t="n">
-        <v>188</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -1494,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9483570625172799</v>
+        <v>0.7100858152875535</v>
       </c>
       <c r="C41" t="n">
         <v>31</v>
@@ -1503,16 +1505,16 @@
         <v>31</v>
       </c>
       <c r="E41" t="n">
-        <v>110.7403805136081</v>
+        <v>45.85079575596817</v>
       </c>
       <c r="F41" t="n">
-        <v>79.94332690364655</v>
+        <v>40.7702612190221</v>
       </c>
       <c r="G41" t="n">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="H41" t="n">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
@@ -1520,25 +1522,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9633039202246012</v>
+        <v>0.7962616283643463</v>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>31</v>
       </c>
       <c r="E42" t="n">
-        <v>116.0836550836551</v>
+        <v>55.59916446789798</v>
       </c>
       <c r="F42" t="n">
-        <v>67.5412017167382</v>
+        <v>41.63922178988327</v>
       </c>
       <c r="G42" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H42" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1546,25 +1548,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9550584124132389</v>
+        <v>0.8678540017617971</v>
       </c>
       <c r="C43" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E43" t="n">
-        <v>98.87603878116343</v>
+        <v>61.90179558011049</v>
       </c>
       <c r="F43" t="n">
-        <v>77.06865464632455</v>
+        <v>47.079932829555</v>
       </c>
       <c r="G43" t="n">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="H43" t="n">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -1572,25 +1574,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9882146549531035</v>
+        <v>0.7737913656262161</v>
       </c>
       <c r="C44" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E44" t="n">
-        <v>136.4985507246377</v>
+        <v>49.09597224898825</v>
       </c>
       <c r="F44" t="n">
-        <v>82.24927536231884</v>
+        <v>41.38431576213971</v>
       </c>
       <c r="G44" t="n">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="H44" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
@@ -1598,25 +1600,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.965326327802991</v>
+        <v>0.7908321518151864</v>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E45" t="n">
-        <v>102.7628755364807</v>
+        <v>46.80859316723855</v>
       </c>
       <c r="F45" t="n">
-        <v>100.0007153075823</v>
+        <v>44.1140291426635</v>
       </c>
       <c r="G45" t="n">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="H45" t="n">
-        <v>203</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -1624,25 +1626,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9540210115235211</v>
+        <v>0.7639996694934363</v>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>31</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1123689727463</v>
+        <v>50.09098236775819</v>
       </c>
       <c r="F46" t="n">
-        <v>75.69860700717602</v>
+        <v>42.57576152043739</v>
       </c>
       <c r="G46" t="n">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="H46" t="n">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -1650,25 +1652,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9178975602020767</v>
+        <v>0.7690616869244806</v>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="n">
-        <v>107.7070907886017</v>
+        <v>53.06906180193597</v>
       </c>
       <c r="F47" t="n">
-        <v>81.2544731610338</v>
+        <v>41.75550191679682</v>
       </c>
       <c r="G47" t="n">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="H47" t="n">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
@@ -1676,25 +1678,51 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9807206464345768</v>
+        <v>0.7735059900062742</v>
       </c>
       <c r="C48" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" t="n">
-        <v>104.4476262245667</v>
+        <v>52.88583948339483</v>
       </c>
       <c r="F48" t="n">
-        <v>79.2948717948718</v>
+        <v>40.4210713018801</v>
       </c>
       <c r="G48" t="n">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="H48" t="n">
-        <v>135</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7956995644459139</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31</v>
+      </c>
+      <c r="D49" t="n">
+        <v>31</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47.6608</v>
+      </c>
+      <c r="F49" t="n">
+        <v>42.50526315789474</v>
+      </c>
+      <c r="G49" t="n">
+        <v>83</v>
+      </c>
+      <c r="H49" t="n">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3112842</v>
+        <v>3069856</v>
       </c>
       <c r="C2" t="n">
-        <v>913.3260946106484</v>
+        <v>903.2696090630961</v>
       </c>
       <c r="D2" t="n">
-        <v>929.3927616628149</v>
+        <v>924.5753999536134</v>
       </c>
     </row>
     <row r="3">
@@ -1752,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2123</v>
+        <v>251</v>
       </c>
       <c r="C3" t="n">
-        <v>16.38294865756006</v>
+        <v>5.195219123505976</v>
       </c>
       <c r="D3" t="n">
-        <v>41.80829015544042</v>
+        <v>12.34262948207171</v>
       </c>
     </row>
     <row r="4">
@@ -1766,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11624</v>
+        <v>6250</v>
       </c>
       <c r="C4" t="n">
-        <v>58.64194769442533</v>
+        <v>38.94432</v>
       </c>
       <c r="D4" t="n">
-        <v>64.24328974535445</v>
+        <v>42.39088</v>
       </c>
     </row>
     <row r="5">
@@ -1780,13 +1808,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9328</v>
+        <v>4067</v>
       </c>
       <c r="C5" t="n">
-        <v>57.74753430531732</v>
+        <v>45.91443324317679</v>
       </c>
       <c r="D5" t="n">
-        <v>52.14772727272727</v>
+        <v>60.86009343496435</v>
       </c>
     </row>
     <row r="6">
@@ -1794,13 +1822,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3527</v>
+        <v>2450</v>
       </c>
       <c r="C6" t="n">
-        <v>35.48709951800397</v>
+        <v>45.31795918367347</v>
       </c>
       <c r="D6" t="n">
-        <v>27.39977317833853</v>
+        <v>13.31632653061224</v>
       </c>
     </row>
     <row r="7">
@@ -1808,13 +1836,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2899</v>
+        <v>7842</v>
       </c>
       <c r="C7" t="n">
-        <v>32.07312866505691</v>
+        <v>48.15072685539403</v>
       </c>
       <c r="D7" t="n">
-        <v>42.10865815798551</v>
+        <v>55.92144861004846</v>
       </c>
     </row>
     <row r="8">
@@ -1822,13 +1850,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6695</v>
+        <v>4301</v>
       </c>
       <c r="C8" t="n">
-        <v>49.13472740851382</v>
+        <v>51.6721692629621</v>
       </c>
       <c r="D8" t="n">
-        <v>43.60941000746826</v>
+        <v>51.39572192513369</v>
       </c>
     </row>
     <row r="9">
@@ -1836,13 +1864,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4625</v>
+        <v>5133</v>
       </c>
       <c r="C9" t="n">
-        <v>39.55545945945946</v>
+        <v>52.43152152737191</v>
       </c>
       <c r="D9" t="n">
-        <v>35.41643243243243</v>
+        <v>41.46054938632378</v>
       </c>
     </row>
     <row r="10">
@@ -1850,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3905</v>
+        <v>613</v>
       </c>
       <c r="C10" t="n">
-        <v>40.82483994878361</v>
+        <v>22.53670473083197</v>
       </c>
       <c r="D10" t="n">
-        <v>34.71728553137004</v>
+        <v>11.98531810766721</v>
       </c>
     </row>
     <row r="11">
@@ -1864,13 +1892,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3343</v>
+        <v>5187</v>
       </c>
       <c r="C11" t="n">
-        <v>32.48758600059826</v>
+        <v>38.59244264507422</v>
       </c>
       <c r="D11" t="n">
-        <v>33.08794495961711</v>
+        <v>43.14921920185078</v>
       </c>
     </row>
     <row r="12">
@@ -1878,13 +1906,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5745</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>46.74795474325501</v>
+        <v>3.5</v>
       </c>
       <c r="D12" t="n">
-        <v>35.49782419495213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1892,13 +1920,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10396</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>53.97922277799154</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>64.2605809926895</v>
+        <v>1.909090909090909</v>
       </c>
     </row>
     <row r="14">
@@ -1906,13 +1934,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2144</v>
+        <v>721</v>
       </c>
       <c r="C14" t="n">
-        <v>36.47061567164179</v>
+        <v>11.82662968099861</v>
       </c>
       <c r="D14" t="n">
-        <v>16.30410447761194</v>
+        <v>23.07766990291262</v>
       </c>
     </row>
     <row r="15">
@@ -1920,13 +1948,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5921</v>
+        <v>9985</v>
       </c>
       <c r="C15" t="n">
-        <v>35.32207397399088</v>
+        <v>63.42083124687031</v>
       </c>
       <c r="D15" t="n">
-        <v>49.89714575240669</v>
+        <v>84.36254381572358</v>
       </c>
     </row>
     <row r="16">
@@ -1934,13 +1962,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3315</v>
+        <v>2260</v>
       </c>
       <c r="C16" t="n">
-        <v>41.21870286576169</v>
+        <v>26.00796460176991</v>
       </c>
       <c r="D16" t="n">
-        <v>26.71553544494721</v>
+        <v>24.10884955752212</v>
       </c>
     </row>
     <row r="17">
@@ -1948,13 +1976,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5581</v>
+        <v>8507</v>
       </c>
       <c r="C17" t="n">
-        <v>38.23364988353342</v>
+        <v>64.57023627600799</v>
       </c>
       <c r="D17" t="n">
-        <v>46.57301558860419</v>
+        <v>59.07770071705654</v>
       </c>
     </row>
     <row r="18">
@@ -1962,13 +1990,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>386</v>
+        <v>5401</v>
       </c>
       <c r="C18" t="n">
-        <v>16.5</v>
+        <v>44.54508424365858</v>
       </c>
       <c r="D18" t="n">
-        <v>5.72279792746114</v>
+        <v>42.24199222366229</v>
       </c>
     </row>
     <row r="19">
@@ -1976,13 +2004,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3856</v>
+        <v>9336</v>
       </c>
       <c r="C19" t="n">
-        <v>38.0746887966805</v>
+        <v>56.01778063410454</v>
       </c>
       <c r="D19" t="n">
-        <v>27.35451244813278</v>
+        <v>74.30516281062553</v>
       </c>
     </row>
     <row r="20">
@@ -1990,13 +2018,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3283</v>
+        <v>9985</v>
       </c>
       <c r="C20" t="n">
-        <v>48.09594882729211</v>
+        <v>67.56054081121682</v>
       </c>
       <c r="D20" t="n">
-        <v>21.05117270788913</v>
+        <v>58.65197796695043</v>
       </c>
     </row>
     <row r="21">
@@ -2004,13 +2032,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5136</v>
+        <v>9747</v>
       </c>
       <c r="C21" t="n">
-        <v>40.77570093457944</v>
+        <v>66.6088027085257</v>
       </c>
       <c r="D21" t="n">
-        <v>43.13668224299065</v>
+        <v>41.95372935262132</v>
       </c>
     </row>
     <row r="22">
@@ -2018,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6229</v>
+        <v>748</v>
       </c>
       <c r="C22" t="n">
-        <v>38.27516455289773</v>
+        <v>10.34224598930481</v>
       </c>
       <c r="D22" t="n">
-        <v>57.84331353347247</v>
+        <v>29.98529411764706</v>
       </c>
     </row>
     <row r="23">
@@ -2032,13 +2060,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6430</v>
+        <v>8597</v>
       </c>
       <c r="C23" t="n">
-        <v>38.42208398133748</v>
+        <v>75.49621961149238</v>
       </c>
       <c r="D23" t="n">
-        <v>48.89440124416797</v>
+        <v>133.3992090264045</v>
       </c>
     </row>
     <row r="24">
@@ -2046,13 +2074,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9272</v>
+        <v>11325</v>
       </c>
       <c r="C24" t="n">
-        <v>59.62834339948231</v>
+        <v>65.83108167770419</v>
       </c>
       <c r="D24" t="n">
-        <v>52.3303494391717</v>
+        <v>54.37086092715231</v>
       </c>
     </row>
     <row r="25">
@@ -2060,13 +2088,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6266</v>
+        <v>5128</v>
       </c>
       <c r="C25" t="n">
-        <v>50.55952760932014</v>
+        <v>41.58989859594384</v>
       </c>
       <c r="D25" t="n">
-        <v>43.81423555697415</v>
+        <v>42.46548361934477</v>
       </c>
     </row>
     <row r="26">
@@ -2074,13 +2102,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3788</v>
+        <v>8911</v>
       </c>
       <c r="C26" t="n">
-        <v>89.6272439281943</v>
+        <v>46.39041633935585</v>
       </c>
       <c r="D26" t="n">
-        <v>15.15258711721225</v>
+        <v>77.18168555717652</v>
       </c>
     </row>
     <row r="27">
@@ -2088,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>766</v>
+        <v>12220</v>
       </c>
       <c r="C27" t="n">
-        <v>17.7532637075718</v>
+        <v>51.56227495908347</v>
       </c>
       <c r="D27" t="n">
-        <v>10.86161879895561</v>
+        <v>68.4968085106383</v>
       </c>
     </row>
     <row r="28">
@@ -2102,13 +2130,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8485</v>
+        <v>7078</v>
       </c>
       <c r="C28" t="n">
-        <v>58.66847377725398</v>
+        <v>66.19059056230573</v>
       </c>
       <c r="D28" t="n">
-        <v>43.88308780200354</v>
+        <v>33.15541113308844</v>
       </c>
     </row>
     <row r="29">
@@ -2116,13 +2144,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3954</v>
+        <v>10316</v>
       </c>
       <c r="C29" t="n">
-        <v>49.41122913505311</v>
+        <v>60.01589763474215</v>
       </c>
       <c r="D29" t="n">
-        <v>28.15553869499241</v>
+        <v>64.25445909267158</v>
       </c>
     </row>
     <row r="30">
@@ -2130,13 +2158,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16385</v>
+        <v>10785</v>
       </c>
       <c r="C30" t="n">
-        <v>73.08593225511139</v>
+        <v>69.21752433936022</v>
       </c>
       <c r="D30" t="n">
-        <v>108.5991455599634</v>
+        <v>47.7878535002318</v>
       </c>
     </row>
     <row r="31">
@@ -2144,13 +2172,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7042</v>
+        <v>12138</v>
       </c>
       <c r="C31" t="n">
-        <v>53.4021584777052</v>
+        <v>67.63766683143845</v>
       </c>
       <c r="D31" t="n">
-        <v>53.0782448168134</v>
+        <v>87.67943648047455</v>
       </c>
     </row>
     <row r="32">
@@ -2158,13 +2186,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12730</v>
+        <v>8543</v>
       </c>
       <c r="C32" t="n">
-        <v>76.55695208169678</v>
+        <v>57.04904600257521</v>
       </c>
       <c r="D32" t="n">
-        <v>74.04783974862529</v>
+        <v>44.52955636193375</v>
       </c>
     </row>
     <row r="33">
@@ -2172,13 +2200,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3736</v>
+        <v>11676</v>
       </c>
       <c r="C33" t="n">
-        <v>30.26632762312634</v>
+        <v>73.00479616306954</v>
       </c>
       <c r="D33" t="n">
-        <v>36.23741970021413</v>
+        <v>53.0172147995889</v>
       </c>
     </row>
     <row r="34">
@@ -2186,13 +2214,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5122</v>
+        <v>12655</v>
       </c>
       <c r="C34" t="n">
-        <v>31.4113627489262</v>
+        <v>75.48455156064797</v>
       </c>
       <c r="D34" t="n">
-        <v>57.67278406872315</v>
+        <v>70.35725009877518</v>
       </c>
     </row>
     <row r="35">
@@ -2200,13 +2228,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7002</v>
+        <v>9117</v>
       </c>
       <c r="C35" t="n">
-        <v>51.67023707512139</v>
+        <v>57.31841614566195</v>
       </c>
       <c r="D35" t="n">
-        <v>56.7460725506998</v>
+        <v>50.36031589338598</v>
       </c>
     </row>
     <row r="36">
@@ -2214,13 +2242,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3682</v>
+        <v>680</v>
       </c>
       <c r="C36" t="n">
-        <v>41.59342748506246</v>
+        <v>34.01764705882353</v>
       </c>
       <c r="D36" t="n">
-        <v>29.05784899511135</v>
+        <v>6.885294117647059</v>
       </c>
     </row>
     <row r="37">
@@ -2228,13 +2256,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5744</v>
+        <v>5180</v>
       </c>
       <c r="C37" t="n">
-        <v>48.69811977715877</v>
+        <v>58.62027027027027</v>
       </c>
       <c r="D37" t="n">
-        <v>44.90529247910864</v>
+        <v>23.65656370656371</v>
       </c>
     </row>
     <row r="38">
@@ -2242,13 +2270,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7491</v>
+        <v>8431</v>
       </c>
       <c r="C38" t="n">
-        <v>52.99078894673608</v>
+        <v>44.49780571699679</v>
       </c>
       <c r="D38" t="n">
-        <v>46.13629688960086</v>
+        <v>54.01447040683193</v>
       </c>
     </row>
     <row r="39">
@@ -2256,13 +2284,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5676</v>
+        <v>4387</v>
       </c>
       <c r="C39" t="n">
-        <v>43.14147286821706</v>
+        <v>59.772281741509</v>
       </c>
       <c r="D39" t="n">
-        <v>43.84566596194503</v>
+        <v>37.72395714611352</v>
       </c>
     </row>
     <row r="40">
@@ -2270,13 +2298,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27317</v>
+        <v>2891</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0460153018267</v>
+        <v>60.30093393289519</v>
       </c>
       <c r="D40" t="n">
-        <v>102.3433027052751</v>
+        <v>29.1086129367001</v>
       </c>
     </row>
     <row r="41">
@@ -2284,13 +2312,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12316</v>
+        <v>2351</v>
       </c>
       <c r="C41" t="n">
-        <v>91.53832413121144</v>
+        <v>43.66780093577201</v>
       </c>
       <c r="D41" t="n">
-        <v>96.81690483923352</v>
+        <v>42.58358145470013</v>
       </c>
     </row>
     <row r="42">
@@ -2298,13 +2326,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2331</v>
+        <v>10813</v>
       </c>
       <c r="C42" t="n">
-        <v>38.87430287430288</v>
+        <v>47.85018033848146</v>
       </c>
       <c r="D42" t="n">
-        <v>25.73659373659374</v>
+        <v>64.65578470359752</v>
       </c>
     </row>
     <row r="43">
@@ -2312,13 +2340,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1444</v>
+        <v>8202</v>
       </c>
       <c r="C43" t="n">
-        <v>10.34002770083102</v>
+        <v>43.67373811265545</v>
       </c>
       <c r="D43" t="n">
-        <v>39.02493074792244</v>
+        <v>64.89502560351134</v>
       </c>
     </row>
     <row r="44">
@@ -2326,13 +2354,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>345</v>
+        <v>5886</v>
       </c>
       <c r="C44" t="n">
-        <v>18.79130434782609</v>
+        <v>34.95854570166497</v>
       </c>
       <c r="D44" t="n">
-        <v>4.063768115942029</v>
+        <v>48.16207951070336</v>
       </c>
     </row>
     <row r="45">
@@ -2340,13 +2368,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2796</v>
+        <v>8211</v>
       </c>
       <c r="C45" t="n">
-        <v>31.22246065808298</v>
+        <v>38.2675678967239</v>
       </c>
       <c r="D45" t="n">
-        <v>27.31258941344778</v>
+        <v>69.55985872609914</v>
       </c>
     </row>
     <row r="46">
@@ -2354,13 +2382,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2385</v>
+        <v>11975</v>
       </c>
       <c r="C46" t="n">
-        <v>26.46498951781971</v>
+        <v>77.59916492693111</v>
       </c>
       <c r="D46" t="n">
-        <v>27.18197064989518</v>
+        <v>55.72367432150313</v>
       </c>
     </row>
     <row r="47">
@@ -2368,13 +2396,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1509</v>
+        <v>12062</v>
       </c>
       <c r="C47" t="n">
-        <v>14.85619615639496</v>
+        <v>59.71696236113414</v>
       </c>
       <c r="D47" t="n">
-        <v>28.68853545394301</v>
+        <v>63.12211905156691</v>
       </c>
     </row>
     <row r="48">
@@ -2382,13 +2410,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1327</v>
+        <v>5174</v>
       </c>
       <c r="C48" t="n">
-        <v>13.34664657121326</v>
+        <v>29.27386934673367</v>
       </c>
       <c r="D48" t="n">
-        <v>38.71514694800302</v>
+        <v>56.4814456899884</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>751</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.55659121171771</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40.28229027962716</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2417,16 +2459,32 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>normalised_b</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>normalised_g</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.89934473278893</v>
+        <v>53.66063622421637</v>
       </c>
       <c r="C2" t="n">
-        <v>99.58893961151786</v>
+        <v>52.64187500299035</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9682766421758052</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9206649168038219</v>
       </c>
     </row>
     <row r="3">
@@ -2434,10 +2492,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>115.3851647292365</v>
+        <v>95.89306756936904</v>
       </c>
       <c r="C3" t="n">
-        <v>194.5510908225608</v>
+        <v>189.183676922782</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.730337618175756</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.308673449888707</v>
       </c>
     </row>
     <row r="4">
@@ -2445,10 +2509,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.10885259363809</v>
+        <v>63.70611782339656</v>
       </c>
       <c r="C4" t="n">
-        <v>67.95109605566864</v>
+        <v>100.7529261577228</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.149541827911778</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.76208929437776</v>
       </c>
     </row>
     <row r="5">
@@ -2456,10 +2526,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.33383331235285</v>
+        <v>105.1497326203209</v>
       </c>
       <c r="C5" t="n">
-        <v>146.3546241754117</v>
+        <v>41.08122743682311</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.897369043517614</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7184782996079286</v>
       </c>
     </row>
     <row r="6">
@@ -2467,10 +2543,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>114.678064900497</v>
+        <v>49.51425729882216</v>
       </c>
       <c r="C6" t="n">
-        <v>79.29096502534949</v>
+        <v>41.20395033516852</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8934575169180734</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7206246264055339</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.304017425825779</v>
+        <v>0.6523121585480812</v>
       </c>
     </row>
     <row r="3">
@@ -2524,7 +2606,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.304017425825779</v>
+        <v>0.6523121585480812</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2576,11 +2658,9 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8503406996523319</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.02584504402059995</v>
-      </c>
+        <v>0.7276787114779101</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2589,14 +2669,12 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8503406996523319</v>
+        <v>0.7276787114779101</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.2488456794223976</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2604,15 +2682,9 @@
           <t>red</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.02584504402059995</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2488456794223976</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2655,13 +2727,279 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01361828266566389</v>
+        <v>0.1243067213566711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6281083005939635</v>
+        <v>0.870233517178566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.174914350084719</v>
+        <v>0.228582452056874</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_b</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_g</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>cluster_labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.234193269741797</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.041459019508259</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.848158992238507</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.1369338589397</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.80156299012501</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.098408449662827</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.15484021012345</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.973905998921779</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Distortion Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12770.95669478474</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6592.271774853919</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3706.024858073833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2260.261994402144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1621.426039660239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1233.500559985636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1013.113032238308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>802.8165868310668</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>624.2583272533382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>474.6036176098428</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>306.2011878383525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>243.8688625284813</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>209.9723496314318</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>166.1639252604816</v>
       </c>
     </row>
   </sheetData>
